--- a/data/steel/钢铁中观数据库.xlsx
+++ b/data/steel/钢铁中观数据库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,30 @@
   </si>
   <si>
     <t>S0028209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高炉开工率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5708175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国铁矿石价格指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5704661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,14 +1153,36 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
